--- a/resume/resume.xlsx
+++ b/resume/resume.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\PYTHON\PROJECTS\ds_projects\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5BDED4-07CC-4CCF-A010-B53A3A2BD68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dashboard" sheetId="7" r:id="rId1"/>
-    <sheet name="data preparation" sheetId="8" r:id="rId2"/>
+    <sheet name="dashboard" sheetId="9" r:id="rId1"/>
+    <sheet name="sidebar" sheetId="7" r:id="rId2"/>
     <sheet name="summary" sheetId="1" r:id="rId3"/>
     <sheet name="links" sheetId="2" r:id="rId4"/>
     <sheet name="skills" sheetId="3" r:id="rId5"/>
@@ -21,7 +22,7 @@
     <sheet name="education" sheetId="5" r:id="rId7"/>
     <sheet name="hobbies" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>summary</t>
   </si>
@@ -72,42 +73,9 @@
     <t>skill</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Bokeh</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>Time Series Analysis</t>
-  </si>
-  <si>
-    <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>Microsoft Excel</t>
-  </si>
-  <si>
-    <t>Excel (VBA and Macros)</t>
-  </si>
-  <si>
-    <t>Team Work</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Creativity</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -228,9 +196,6 @@
     <t>Coding</t>
   </si>
   <si>
-    <t>SUMMARY</t>
-  </si>
-  <si>
     <t>I enjoy working with data.</t>
   </si>
   <si>
@@ -244,13 +209,148 @@
   </si>
   <si>
     <t>and data visualization.</t>
+  </si>
+  <si>
+    <t>I am highly proficient in Microsoft</t>
+  </si>
+  <si>
+    <t>Excel (VBA and Macros), Python</t>
+  </si>
+  <si>
+    <t>Programming Language, and</t>
+  </si>
+  <si>
+    <t>MySQL Databases.</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Visualization        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Excel             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBA and Macros           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Work                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulting                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creativity                       </t>
+  </si>
+  <si>
+    <t>E X P E R I E N CE</t>
+  </si>
+  <si>
+    <t>D A N I E L</t>
+  </si>
+  <si>
+    <t>A F R I Y I E</t>
+  </si>
+  <si>
+    <t>A C C O U N T I N G   A N D   F I N A N C E,  P R O G R A M M E R</t>
+  </si>
+  <si>
+    <t>S U M M A R Y</t>
+  </si>
+  <si>
+    <t>L I N K S</t>
+  </si>
+  <si>
+    <t>S K I L L S</t>
+  </si>
+  <si>
+    <t>Microsoft Excel Consultant, Python Developer</t>
+  </si>
+  <si>
+    <t>I develop automation programs to automate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and optimize excel spreadsheet and browsers </t>
+  </si>
+  <si>
+    <t>using VBA and selenium python.</t>
+  </si>
+  <si>
+    <t>Accounts Officer - Kumawu Government Polyclinic</t>
+  </si>
+  <si>
+    <t>In charge for all payments made by patients to the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyclinic and revenue generation. Worked with </t>
+  </si>
+  <si>
+    <t>Accountant to prepare books of accounts.</t>
+  </si>
+  <si>
+    <t>Accounts Officer - Tamale West Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospital and revenue generation. Worked </t>
+  </si>
+  <si>
+    <t>In charge for all payments made to the</t>
+  </si>
+  <si>
+    <t>with Supervisor to prepare weekly cashbook.</t>
+  </si>
+  <si>
+    <t>E D U C A T I O N</t>
+  </si>
+  <si>
+    <t>Bachelor of Business Administration, Accounting - Valley View University</t>
+  </si>
+  <si>
+    <t>Coursework focus included business management, marketing, finance,</t>
+  </si>
+  <si>
+    <t>concentration in Accounting.</t>
+  </si>
+  <si>
+    <t>operations, accounting, and business economics. Graduated with a major</t>
+  </si>
+  <si>
+    <t>Higher National Diploma, Accounting with Computing - Kumasi Technical University</t>
+  </si>
+  <si>
+    <t>Coursework focus on training in computerized accounting systems, accounting</t>
+  </si>
+  <si>
+    <t>information for analysis and decision-making.</t>
+  </si>
+  <si>
+    <t>records, financial reporting, and make effective use of financial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,11 +394,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFDFDFD"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFDFDFD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFBA883A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -332,12 +484,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFDFDFD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFDFDFD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF303030"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,15 +548,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -376,8 +585,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC9C9C9"/>
       <color rgb="FFFDFDFD"/>
       <color rgb="FF303030"/>
+      <color rgb="FF1B1B1B"/>
+      <color rgb="FFBA883A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -391,24 +603,1099 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>skills!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C9C9C9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>skills!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Python                            </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selenium                        </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MySQL                            </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Visualization        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Microsoft Excel             </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VBA and Macros           </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Team Work                    </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Communication            </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Consulting                     </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Creativity                       </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>skills!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CF7-4748-89C2-44B37262C8BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>skills!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>skills!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Python                            </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selenium                        </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MySQL                            </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Visualization        </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Microsoft Excel             </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VBA and Macros           </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Team Work                    </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Communication            </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Consulting                     </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Creativity                       </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>skills!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CF7-4748-89C2-44B37262C8BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="575794736"/>
+        <c:axId val="571712896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="575794736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FDFDFD"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571712896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="l"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571712896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="575794736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="303030"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1048576</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F04A22-1757-46ED-8AAB-3F26967DF023}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="sidebar!$A$1:$D$48" spid="_x0000_s9276"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="2486025" cy="9048750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E78B09-BF9F-44D1-8667-B6410C87A63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="2257425"/>
+          <a:ext cx="274320" cy="289282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187313</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365760" cy="292608"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DCFEC6-D3B3-40F7-A54C-CC0561B02498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="5807063"/>
+          <a:ext cx="365760" cy="292608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -427,8 +1714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3362326" y="390525"/>
-          <a:ext cx="1838324" cy="2047875"/>
+          <a:off x="485776" y="276226"/>
+          <a:ext cx="1543049" cy="1647824"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -439,6 +1726,189 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259082</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>240032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459ED839-C2BB-4B97-A73F-D01D28AED4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543052" y="5429252"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87632</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="182880"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E7DE69-A648-4713-92E3-998FCAD7B93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554482" y="5715002"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79060</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="177165" cy="182880"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90ACEDE-4946-43A8-A258-6AB2E12DCA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1545910" y="6000752"/>
+          <a:ext cx="177165" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B4B4E1-82F9-4734-BAF9-D50315FB3B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -740,289 +2210,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F40484-9A73-49AB-9C54-96585B8BCC8C}">
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="6:18" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="F3" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="6:18" ht="49.5" x14ac:dyDescent="0.65">
+      <c r="F4" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="6:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="6:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="6:18" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F19" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F20" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F22" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F23" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F24" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="27" spans="6:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F31" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F34" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F38" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="3:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="3:6" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>67</v>
-      </c>
+    </row>
+    <row r="20" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
+  <mergeCells count="4">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{463B7D8C-0542-49D9-8A5F-CD671101E9FB}"/>
+    <hyperlink ref="B30" r:id="rId2" xr:uid="{0F8B6952-519F-4D20-9265-3204A015AB2A}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{EC25CE2D-3E3B-48A3-8768-C31C2DF67A0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1076,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,23 +2867,23 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,100 +2891,135 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="C2" s="2">
+        <f>1-B2</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="0">1-B3</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.8</v>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1234,11 +3028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,82 +3045,82 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1335,55 +3129,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +3186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1403,22 +3197,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
